--- a/SQL/CI-Platform.xlsx
+++ b/SQL/CI-Platform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiren\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tatvasoft\Tatvasoft_Assignment\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D8429-FB76-4A47-B624-2006382B9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178F30D-DE69-4E87-BD64-EB208EA52F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" xr2:uid="{631045A7-F584-44FB-B71D-41D5E91B58EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="146">
   <si>
     <t xml:space="preserve">first name </t>
   </si>
@@ -471,13 +471,16 @@
   </si>
   <si>
     <t>manager_name</t>
+  </si>
+  <si>
+    <t>Patel Hirenkumar Vinodbhai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +532,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -699,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -777,13 +788,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1594,8 +1611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{149294D8-664C-4E80-ABD9-8E3BAC00FA80}" name="Table1" displayName="Table1" ref="L3:S22" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
-  <autoFilter ref="L3:S22" xr:uid="{149294D8-664C-4E80-ABD9-8E3BAC00FA80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{149294D8-664C-4E80-ABD9-8E3BAC00FA80}" name="Table1" displayName="Table1" ref="L9:S28" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+  <autoFilter ref="L9:S28" xr:uid="{149294D8-664C-4E80-ABD9-8E3BAC00FA80}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9A4F4F75-7649-4872-9338-C2ECC4666D4C}" name="filed " dataDxfId="161"/>
     <tableColumn id="2" xr3:uid="{8234046E-D4CE-4DA1-8378-21E3BDAB96E4}" name="variable type " dataDxfId="160"/>
@@ -1611,8 +1628,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23DDFFDF-A279-44F1-AFCB-FA91C5EC7EA4}" name="Table10" displayName="Table10" ref="L94:S100" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="L94:S100" xr:uid="{23DDFFDF-A279-44F1-AFCB-FA91C5EC7EA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{23DDFFDF-A279-44F1-AFCB-FA91C5EC7EA4}" name="Table10" displayName="Table10" ref="L100:S106" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="L100:S106" xr:uid="{23DDFFDF-A279-44F1-AFCB-FA91C5EC7EA4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9DAE2CBD-9890-4D69-A9A6-6B899F5EF7E0}" name="field_name" dataDxfId="69"/>
     <tableColumn id="2" xr3:uid="{FD08DD5D-B4C6-4849-8B2B-B7131888EAD1}" name="type" dataDxfId="68"/>
@@ -1628,8 +1645,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E8B712EA-7B65-4BBF-B6C3-6B2EB03AF3E1}" name="Table11" displayName="Table11" ref="A102:H104" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A102:H104" xr:uid="{E8B712EA-7B65-4BBF-B6C3-6B2EB03AF3E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E8B712EA-7B65-4BBF-B6C3-6B2EB03AF3E1}" name="Table11" displayName="Table11" ref="A108:H110" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A108:H110" xr:uid="{E8B712EA-7B65-4BBF-B6C3-6B2EB03AF3E1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E966794D-7A08-4ADB-BA2D-9E7F36D03BA4}" name="field_name" dataDxfId="59"/>
     <tableColumn id="2" xr3:uid="{F3C73F15-D945-4E78-85B3-0CA7D76F6A32}" name="type" dataDxfId="58"/>
@@ -1645,8 +1662,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{525B31D5-3627-44B9-A875-F47476FEFD92}" name="Table12" displayName="Table12" ref="A109:H112" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="A109:H112" xr:uid="{525B31D5-3627-44B9-A875-F47476FEFD92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{525B31D5-3627-44B9-A875-F47476FEFD92}" name="Table12" displayName="Table12" ref="A115:H118" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A115:H118" xr:uid="{525B31D5-3627-44B9-A875-F47476FEFD92}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{916DA206-31E1-41AB-AEAC-0F769DF057F6}" name="field_name" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{3436C4D0-1250-4886-B58F-9F3BA70FAA27}" name="type" dataDxfId="48"/>
@@ -1662,8 +1679,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{14F05FD0-73D9-4DD8-93DA-6966555C3E59}" name="Table13" displayName="Table13" ref="L105:S107" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="L105:S107" xr:uid="{14F05FD0-73D9-4DD8-93DA-6966555C3E59}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{14F05FD0-73D9-4DD8-93DA-6966555C3E59}" name="Table13" displayName="Table13" ref="L111:S113" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="L111:S113" xr:uid="{14F05FD0-73D9-4DD8-93DA-6966555C3E59}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{36FEBA1D-FD6F-479F-B848-5279A0F30147}" name="field_name" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{D601BF23-4955-42EA-8828-A5124BA97E09}" name="type" dataDxfId="38"/>
@@ -1679,8 +1696,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8A16B7A1-CA09-4F65-B569-BE75FEC15854}" name="Table14" displayName="Table14" ref="L50:S52" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="L50:S52" xr:uid="{8A16B7A1-CA09-4F65-B569-BE75FEC15854}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8A16B7A1-CA09-4F65-B569-BE75FEC15854}" name="Table14" displayName="Table14" ref="L56:S58" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="L56:S58" xr:uid="{8A16B7A1-CA09-4F65-B569-BE75FEC15854}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2403E278-97D2-41CB-A122-09C2BB046F8B}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{FE926BD1-1BAD-4758-AA8F-E39CA068A891}" name="type"/>
@@ -1696,8 +1713,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F5A10F4E-80D1-4F4E-A1AE-2ED0B8B45497}" name="Table15" displayName="Table15" ref="L112:S114" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="L112:S114" xr:uid="{F5A10F4E-80D1-4F4E-A1AE-2ED0B8B45497}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{F5A10F4E-80D1-4F4E-A1AE-2ED0B8B45497}" name="Table15" displayName="Table15" ref="L118:S120" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="L118:S120" xr:uid="{F5A10F4E-80D1-4F4E-A1AE-2ED0B8B45497}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{66370B0E-D0DA-4516-B824-16EF298C9AC2}" name="field_name" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{19F4D4CA-DCC3-476B-A50A-258B07F02702}" name="type" dataDxfId="27"/>
@@ -1713,8 +1730,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{70935446-B6FB-4F46-9270-E62B8D1E1B0F}" name="Table16" displayName="Table16" ref="A117:H120" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A117:H120" xr:uid="{70935446-B6FB-4F46-9270-E62B8D1E1B0F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{70935446-B6FB-4F46-9270-E62B8D1E1B0F}" name="Table16" displayName="Table16" ref="A123:H126" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A123:H126" xr:uid="{70935446-B6FB-4F46-9270-E62B8D1E1B0F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F86CE283-CBE6-4052-99FC-2CC70435808C}" name="field_name" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{DDB3B033-7E16-475D-9C90-7EB5505CF6F9}" name="type" dataDxfId="17"/>
@@ -1730,8 +1747,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D2EA566D-BE47-4ECC-8DBD-847079E5E75D}" name="Table17" displayName="Table17" ref="L121:S125" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="L121:S125" xr:uid="{D2EA566D-BE47-4ECC-8DBD-847079E5E75D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D2EA566D-BE47-4ECC-8DBD-847079E5E75D}" name="Table17" displayName="Table17" ref="L127:S131" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="L127:S131" xr:uid="{D2EA566D-BE47-4ECC-8DBD-847079E5E75D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A45CAB49-2F69-4338-B56C-5CDE2ACF94A8}" name="field_name" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{8A78672A-2666-40D7-B45B-494AED3EECED}" name="type" dataDxfId="7"/>
@@ -1747,8 +1764,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{68285A6D-33C8-4C26-8FE2-73B77935957F}" name="Table18" displayName="Table18" ref="A125:H128" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A125:H128" xr:uid="{68285A6D-33C8-4C26-8FE2-73B77935957F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{68285A6D-33C8-4C26-8FE2-73B77935957F}" name="Table18" displayName="Table18" ref="A131:H134" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A131:H134" xr:uid="{68285A6D-33C8-4C26-8FE2-73B77935957F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9CEFDCE0-733A-44AB-BDBB-EDF4381C0ED3}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{08C581EA-0CA7-4E58-AFAE-EE1AC6F81456}" name="type"/>
@@ -1764,8 +1781,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFA39463-D4D8-44B8-8C46-69D60A7D6701}" name="Table2" displayName="Table2" ref="A3:H12" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
-  <autoFilter ref="A3:H12" xr:uid="{EFA39463-D4D8-44B8-8C46-69D60A7D6701}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFA39463-D4D8-44B8-8C46-69D60A7D6701}" name="Table2" displayName="Table2" ref="A9:H18" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
+  <autoFilter ref="A9:H18" xr:uid="{EFA39463-D4D8-44B8-8C46-69D60A7D6701}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0C940830-D087-4C16-AFAF-5BD1EEFFD653}" name="filed " dataDxfId="151"/>
     <tableColumn id="2" xr3:uid="{592C580A-D957-45FD-A7F6-BBE8675CAE77}" name="type (input)" dataDxfId="150"/>
@@ -1781,8 +1798,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{715CAD73-1DFF-40D5-8572-BBF3278DDA09}" name="Table3" displayName="Table3" ref="A21:H38" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
-  <autoFilter ref="A21:H38" xr:uid="{715CAD73-1DFF-40D5-8572-BBF3278DDA09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{715CAD73-1DFF-40D5-8572-BBF3278DDA09}" name="Table3" displayName="Table3" ref="A27:H44" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+  <autoFilter ref="A27:H44" xr:uid="{715CAD73-1DFF-40D5-8572-BBF3278DDA09}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{898C8F5E-78B1-4211-BF80-C1CA88AF4FA4}" name="filed " dataDxfId="141"/>
     <tableColumn id="2" xr3:uid="{CFDE9261-72EE-4A5D-8A17-5B27706AA2BC}" name="variable type " dataDxfId="140"/>
@@ -1798,8 +1815,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2AD9A63-8940-4FBF-AF37-025F0BF061A0}" name="Table4" displayName="Table4" ref="A52:H62" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
-  <autoFilter ref="A52:H62" xr:uid="{A2AD9A63-8940-4FBF-AF37-025F0BF061A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2AD9A63-8940-4FBF-AF37-025F0BF061A0}" name="Table4" displayName="Table4" ref="A58:H68" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+  <autoFilter ref="A58:H68" xr:uid="{A2AD9A63-8940-4FBF-AF37-025F0BF061A0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{37C250B0-184C-401C-9E60-8CEBE444F352}" name="filed " dataDxfId="131"/>
     <tableColumn id="2" xr3:uid="{A1CBD420-9A56-4E4B-A7D4-A04A9F1E2258}" name="variable type " dataDxfId="130"/>
@@ -1815,8 +1832,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1A56C9B-777A-4BB5-9E3F-9A440BE2A363}" name="Table5" displayName="Table5" ref="A77:H82" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
-  <autoFilter ref="A77:H82" xr:uid="{B1A56C9B-777A-4BB5-9E3F-9A440BE2A363}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1A56C9B-777A-4BB5-9E3F-9A440BE2A363}" name="Table5" displayName="Table5" ref="A83:H88" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A83:H88" xr:uid="{B1A56C9B-777A-4BB5-9E3F-9A440BE2A363}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{93B97E74-7B2C-47A1-A88A-028917FE8083}" name="filed " dataDxfId="121"/>
     <tableColumn id="2" xr3:uid="{88013C3B-FDC2-47CD-9276-E12CBC0901F6}" name="variable type " dataDxfId="120"/>
@@ -1832,8 +1849,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1FE496A9-9C26-4901-A52A-9132609ED38A}" name="Table6" displayName="Table6" ref="L38:S42" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110">
-  <autoFilter ref="L38:S42" xr:uid="{1FE496A9-9C26-4901-A52A-9132609ED38A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1FE496A9-9C26-4901-A52A-9132609ED38A}" name="Table6" displayName="Table6" ref="L44:S48" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110">
+  <autoFilter ref="L44:S48" xr:uid="{1FE496A9-9C26-4901-A52A-9132609ED38A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A2A1117F-E780-420E-A7C8-B506E23AEEB9}" name="filed" dataDxfId="109"/>
     <tableColumn id="2" xr3:uid="{AAB8D775-7384-4CE2-A629-369BDCD7B9EF}" name="variable type " dataDxfId="108"/>
@@ -1849,8 +1866,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71E2653F-ABE4-460B-8E62-1083F0C98B17}" name="Table48" displayName="Table48" ref="L65:S76" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="L65:S76" xr:uid="{71E2653F-ABE4-460B-8E62-1083F0C98B17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{71E2653F-ABE4-460B-8E62-1083F0C98B17}" name="Table48" displayName="Table48" ref="L71:S82" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="L71:S82" xr:uid="{71E2653F-ABE4-460B-8E62-1083F0C98B17}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{08DC690B-3458-4FB9-B19F-FD26FF5B1B08}" name="filed " dataDxfId="99"/>
     <tableColumn id="2" xr3:uid="{D9EACCF3-024C-48A4-BD63-672AB6712156}" name="variable type " dataDxfId="98"/>
@@ -1866,8 +1883,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7E6D147D-7595-4AE4-B8C8-2AFC66D97525}" name="Table8" displayName="Table8" ref="L84:S88" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
-  <autoFilter ref="L84:S88" xr:uid="{7E6D147D-7595-4AE4-B8C8-2AFC66D97525}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7E6D147D-7595-4AE4-B8C8-2AFC66D97525}" name="Table8" displayName="Table8" ref="L90:S94" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="L90:S94" xr:uid="{7E6D147D-7595-4AE4-B8C8-2AFC66D97525}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0940A3A5-AD07-471C-B8E6-B847219F2630}" name="field_name" dataDxfId="89"/>
     <tableColumn id="2" xr3:uid="{527761B5-E6B8-48C5-924E-E77E60CA4B49}" name="type" dataDxfId="88"/>
@@ -1883,8 +1900,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4BDE81FF-0281-42A7-80CD-DD3263AF1E5D}" name="Table9" displayName="Table9" ref="A92:H96" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="A92:H96" xr:uid="{4BDE81FF-0281-42A7-80CD-DD3263AF1E5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4BDE81FF-0281-42A7-80CD-DD3263AF1E5D}" name="Table9" displayName="Table9" ref="A98:H102" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A98:H102" xr:uid="{4BDE81FF-0281-42A7-80CD-DD3263AF1E5D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D95A23EB-8288-45DC-8C29-5DAF9DA27250}" name="field_name" dataDxfId="79"/>
     <tableColumn id="2" xr3:uid="{FD6495FE-E72A-4376-B8D8-2A6CC48D43D4}" name="type" dataDxfId="78"/>
@@ -2196,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E213D3CD-64D3-4F9F-9A03-0E5989871AA5}">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A3:T134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:H128"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,396 +2243,172 @@
     <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="1"/>
-      <c r="L1" s="31" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="O9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C11" s="5">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N11" s="6">
         <v>25</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="O11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="2">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="2">
-        <v>15</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2">
-        <v>64</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="2">
-        <v>64</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>20</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -2626,38 +2419,52 @@
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="7">
-        <v>25</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" s="7"/>
+      <c r="N12" s="2">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="N13" s="2">
+        <v>20</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>18</v>
@@ -2665,854 +2472,968 @@
       <c r="P13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>35</v>
+      <c r="Q13" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="2">
         <v>15</v>
       </c>
-      <c r="N14" s="2">
-        <v>25</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="L15" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="2">
+        <v>64</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="2" t="s">
+      <c r="M16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>64</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L17" s="2" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L18" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="7">
+        <v>20</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="7">
+        <v>25</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L19" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2">
-        <v>2048</v>
+        <v>16</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L20" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N20" s="2">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L21" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N21" s="2">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="1"/>
+      <c r="L25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2048</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>255</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="L27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
         <v>25</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L22" s="2" t="s">
+      <c r="P27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="2" t="s">
+      <c r="N28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="P28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C29" s="10">
         <v>25</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C30" s="8">
         <v>20</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C31" s="8">
         <v>25</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="F31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C32" s="2">
         <v>20</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
-        <v>128</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C43" s="2">
         <v>10</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L44" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="16" t="s">
+      <c r="N44" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="O38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="16" t="s">
+      <c r="O44" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" s="16" t="s">
+      <c r="Q44" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R44" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="S38" s="17" t="s">
+      <c r="S44" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L40" s="2" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="2" t="s">
+      <c r="M46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P40" s="2" t="s">
+      <c r="O46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L41" s="12" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="13" t="s">
+      <c r="M47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="14" t="s">
+      <c r="O47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L42" s="2" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="2" t="s">
+      <c r="N48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S48" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L49" s="29" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L55" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="1"/>
-      <c r="L50" s="19" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="1"/>
+      <c r="L56" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M50" s="19" t="s">
+      <c r="M56" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N56" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O50" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="19" t="s">
+      <c r="O56" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q50" s="19" t="s">
+      <c r="Q56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R50" s="19" t="s">
+      <c r="R56" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="S50" s="19" t="s">
+      <c r="S56" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L51" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
         <v>129</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M57" t="s">
         <v>50</v>
       </c>
-      <c r="N51">
+      <c r="N57">
         <v>3</v>
       </c>
-      <c r="O51" t="s">
-        <v>13</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51" t="s">
+      <c r="O57" t="s">
+        <v>13</v>
+      </c>
+      <c r="P57"/>
+      <c r="Q57" t="s">
         <v>102</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R57" t="s">
         <v>94</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="L52" t="s">
+      <c r="I58" s="3"/>
+      <c r="L58" t="s">
         <v>130</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M58" t="s">
         <v>108</v>
       </c>
-      <c r="N52">
+      <c r="N58">
         <v>20</v>
       </c>
-      <c r="O52" t="s">
-        <v>13</v>
-      </c>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="O58" t="s">
+        <v>13</v>
+      </c>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="C60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="2">
-        <v>256</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="9">
-        <v>20</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
@@ -3521,21 +3442,21 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>18</v>
@@ -3544,186 +3465,186 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="L63" s="31" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="9">
+        <v>20</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2">
+        <v>255</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L69" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="1"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L65" s="3" t="s">
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P65" s="3" t="s">
+      <c r="O71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="Q71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="R71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="S71" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L67" s="11" t="s">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L73" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M73" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P67" s="11" t="s">
+      <c r="N73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S67" s="11"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L68" s="2" t="s">
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L74" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L71" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L72" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N72" s="9">
-        <v>20</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R72" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S72" s="9"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L73" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R73" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S73" s="9"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L74" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>15</v>
@@ -3732,32 +3653,21 @@
         <v>16</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L75" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N75" s="2">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>18</v>
@@ -3766,1208 +3676,1336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="L76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N78" s="9">
+        <v>20</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S78" s="9"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L79" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S79" s="9"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="1"/>
+      <c r="L81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N81" s="2">
+        <v>255</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N82" s="2">
         <v>35</v>
       </c>
-      <c r="O76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P76" s="2" t="s">
+      <c r="O82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="83" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L83" s="29" t="s">
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L89" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L84" s="19" t="s">
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L90" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M84" s="19" t="s">
+      <c r="M90" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N84" s="19" t="s">
+      <c r="N90" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O84" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P84" s="19" t="s">
+      <c r="O90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P90" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q84" s="19" t="s">
+      <c r="Q90" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="R84" s="23" t="s">
+      <c r="R90" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S84" s="19" t="s">
+      <c r="S90" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L85" s="24" t="s">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L91" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="M85" s="24" t="s">
+      <c r="M91" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N91" s="22">
         <v>20</v>
       </c>
-      <c r="O85" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22" t="s">
+      <c r="O91" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R85" s="25" t="s">
+      <c r="R91" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="S85" s="22"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L86" s="22" t="s">
+      <c r="S91" s="22"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L92" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="M86" s="22" t="s">
+      <c r="M92" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="N86" s="22" t="s">
+      <c r="N92" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="O86" s="22" t="s">
+      <c r="O92" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P86" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="22"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L87" s="22" t="s">
+      <c r="P92" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="22"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L93" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="M87" s="22" t="s">
+      <c r="M93" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N93" s="22">
         <v>20</v>
       </c>
-      <c r="O87" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22" t="s">
+      <c r="O93" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R87" s="27" t="s">
+      <c r="R93" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="S87" s="22"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L88" s="22" t="s">
+      <c r="S93" s="22"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L94" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M88" s="22" t="s">
+      <c r="M94" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22" t="s">
+      <c r="N94" s="22"/>
+      <c r="O94" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R88" s="26" t="s">
+      <c r="R94" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="S88" s="22" t="s">
+      <c r="S94" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="29" t="s">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="21" t="s">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B98" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C98" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="19" t="s">
+      <c r="D98" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F98" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G98" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H98" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L92" s="30" t="s">
+      <c r="L98" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="31"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B99" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C99" s="22">
         <v>20</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D99" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G93" s="22" t="s">
+      <c r="G99" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H93" s="22"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
+      <c r="H99" s="22"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B100" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="L94" s="19" t="s">
+      <c r="C100" s="22"/>
+      <c r="D100" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="L100" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M94" s="19" t="s">
+      <c r="M100" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N94" s="19" t="s">
+      <c r="N100" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P94" s="19" t="s">
+      <c r="O100" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P100" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q94" s="19" t="s">
+      <c r="Q100" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="R94" s="19" t="s">
+      <c r="R100" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="S94" s="19" t="s">
+      <c r="S100" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B101" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C101" s="22">
         <v>20</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22" t="s">
+      <c r="D101" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G101" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H95" s="22"/>
-      <c r="L95" s="22" t="s">
+      <c r="H101" s="22"/>
+      <c r="L101" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="M95" s="22" t="s">
+      <c r="M101" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N101" s="22">
         <v>128</v>
       </c>
-      <c r="O95" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
+      <c r="O101" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B102" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G96" s="22" t="s">
+      <c r="G102" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="22" t="s">
+      <c r="H102" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L96" s="22" t="s">
+      <c r="L102" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M96" s="22" t="s">
+      <c r="M102" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N96" s="22">
+      <c r="N102" s="22">
         <v>128</v>
       </c>
-      <c r="O96" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L97" s="22" t="s">
+      <c r="O102" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="22"/>
+      <c r="S102" s="22"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L103" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M97" s="22" t="s">
+      <c r="M103" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N103" s="22">
         <v>128</v>
       </c>
-      <c r="O97" s="22" t="s">
+      <c r="O103" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P97" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L98" s="22" t="s">
+      <c r="P103" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L104" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="M98" s="22" t="s">
+      <c r="M104" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N104" s="22">
         <v>2056</v>
       </c>
-      <c r="O98" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L99" s="22" t="s">
+      <c r="O104" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L105" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M99" s="22" t="s">
+      <c r="M105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N105" s="22">
         <v>20</v>
       </c>
-      <c r="O99" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22" t="s">
+      <c r="O105" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R99" s="22" t="s">
+      <c r="R105" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S99" s="22"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L100" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R100" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="S100" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="2">
-        <v>3</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="2">
-        <v>10</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L104" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L105" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M105" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N105" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O105" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P105" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q105" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S105" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="S105" s="22"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L106" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="M106" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N106" s="22">
-        <v>3</v>
-      </c>
+      <c r="N106" s="22"/>
       <c r="O106" s="22" t="s">
         <v>13</v>
       </c>
       <c r="P106" s="22"/>
       <c r="Q106" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R106" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="S106" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R106" s="22" t="s">
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S106" s="22" t="s">
+      <c r="H109" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L107" s="22" t="s">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M107" s="22" t="s">
+      <c r="B110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N107" s="22">
+      <c r="C110" s="2">
         <v>10</v>
       </c>
-      <c r="O107" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="20" t="s">
+      <c r="D110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="30"/>
+      <c r="R110" s="30"/>
+      <c r="S110" s="30"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L111" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="M111" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="20" t="s">
+      <c r="O111" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P111" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H109" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="22" t="s">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L112" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M112" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="22">
+      <c r="N112" s="22">
         <v>3</v>
       </c>
-      <c r="D110" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="O112" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G110" s="22" t="s">
+      <c r="R112" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H110" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="22">
-        <v>20</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="L111" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M111" s="29"/>
-      <c r="N111" s="29"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C112" s="22">
-        <v>3</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L112" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M112" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N112" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O112" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P112" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q112" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R112" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S112" s="20" t="s">
-        <v>91</v>
+      <c r="S112" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L113" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M113" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N113" s="22">
+        <v>10</v>
+      </c>
+      <c r="O113" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N113" s="22">
+      <c r="C116" s="22">
         <v>3</v>
       </c>
-      <c r="O113" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22" t="s">
+      <c r="D116" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R113" s="22" t="s">
+      <c r="G116" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="S113" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L114" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="M114" s="22" t="s">
+      <c r="H116" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="N114" s="22">
-        <v>10</v>
-      </c>
-      <c r="O114" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-      <c r="S114" s="22"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C117" s="22">
+        <v>20</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="L117" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M117" s="30"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C118" s="22">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
+      <c r="H118" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L118" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O118" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P118" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q118" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R118" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S118" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
+      <c r="L119" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M119" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N119" s="22">
+        <v>3</v>
+      </c>
+      <c r="O119" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R119" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="S119" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L120" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="M120" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N120" s="22">
+        <v>10</v>
+      </c>
+      <c r="O120" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="22">
+        <v>20</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B125" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C125" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D119" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="22" t="s">
+      <c r="D125" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B126" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C126" s="22">
         <v>20</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22" t="s">
+      <c r="D126" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G126" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H126" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L120" s="29" t="s">
+      <c r="L126" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L121" s="28" t="s">
+      <c r="M126" s="30"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="30"/>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L127" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M121" s="20" t="s">
+      <c r="M127" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N121" s="20" t="s">
+      <c r="N127" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O121" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P121" s="20" t="s">
+      <c r="O127" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P127" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="Q121" s="20" t="s">
+      <c r="Q127" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R121" s="20" t="s">
+      <c r="R127" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="S121" s="20" t="s">
+      <c r="S127" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L122" s="22" t="s">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L128" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="M122" s="22" t="s">
+      <c r="M128" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N122" s="22">
+      <c r="N128" s="22">
         <v>20</v>
       </c>
-      <c r="O122" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="22" t="s">
+      <c r="O128" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="S122" s="22" t="s">
+      <c r="S128" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L123" s="22" t="s">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L129" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="M123" s="22" t="s">
+      <c r="M129" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="N123" s="22">
+      <c r="N129" s="22">
         <v>20</v>
       </c>
-      <c r="O123" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22" t="s">
+      <c r="O129" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P129" s="22"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="S123" s="22" t="s">
+      <c r="S129" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124" s="29" t="s">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="L124" s="22" t="s">
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="L130" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="M124" s="22" t="s">
+      <c r="M130" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="N124" s="22" t="s">
+      <c r="N130" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="O124" s="22" t="s">
+      <c r="O130" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P124" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
+      <c r="P130" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="22"/>
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B131" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C131" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="19" t="s">
+      <c r="D131" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F131" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G131" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H131" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L125" s="22" t="s">
+      <c r="L131" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M125" s="22" t="s">
+      <c r="M131" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22" t="s">
+      <c r="N131" s="22"/>
+      <c r="O131" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P131" s="22"/>
+      <c r="Q131" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="R125" s="22" t="s">
+      <c r="R131" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="S125" s="22" t="s">
+      <c r="S131" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>141</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B132" t="s">
         <v>50</v>
       </c>
-      <c r="C126">
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126" t="s">
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
         <v>142</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G132" t="s">
         <v>94</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H132" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>144</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
         <v>108</v>
       </c>
-      <c r="C127">
+      <c r="C133">
         <v>20</v>
       </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B134" t="s">
         <v>50</v>
       </c>
-      <c r="C128">
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D134" t="s">
         <v>18</v>
       </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128" t="s">
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="L49:S49"/>
-    <mergeCell ref="L35:S35"/>
-    <mergeCell ref="L63:S63"/>
-    <mergeCell ref="L111:S111"/>
-    <mergeCell ref="A116:H116"/>
-    <mergeCell ref="L120:S120"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="L83:S83"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="L104:S104"/>
-    <mergeCell ref="L92:S92"/>
+  <mergeCells count="19">
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="L117:S117"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="L126:S126"/>
+    <mergeCell ref="A130:H130"/>
+    <mergeCell ref="L89:S89"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="L110:S110"/>
+    <mergeCell ref="L98:S98"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="L55:S55"/>
+    <mergeCell ref="L41:S41"/>
+    <mergeCell ref="L69:S69"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{2917CCC1-6860-460C-96F2-E71B3703A78F}"/>
-    <hyperlink ref="S10" r:id="rId2" xr:uid="{9AC0228D-98DB-4AC6-B7A1-05346FCBE509}"/>
+    <hyperlink ref="H15" r:id="rId1" xr:uid="{2917CCC1-6860-460C-96F2-E71B3703A78F}"/>
+    <hyperlink ref="S16" r:id="rId2" xr:uid="{9AC0228D-98DB-4AC6-B7A1-05346FCBE509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
